--- a/Data/Heat Storage.xlsx
+++ b/Data/Heat Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Progressive Hedging /Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Benders-Decomposition/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D01B0-A0AA-EA45-8612-C0CF14C4E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9533F-C5F3-B541-8A52-0694A8007CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial values" sheetId="7" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344E307-70EA-9749-BC3D-54A83804696F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="280" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,8 +521,8 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <f>1/B3</f>
-        <v>3.3333333333333333E-2</v>
+        <f>ROUND(1/B3,4)</f>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5D001-EACD-464B-BF0A-91777AE16B43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="225" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>

--- a/Data/Heat Storage.xlsx
+++ b/Data/Heat Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Benders-Decomposition/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9533F-C5F3-B541-8A52-0694A8007CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B03AE1C-017D-4D46-A0D0-15C66C9968AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20060" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial values" sheetId="7" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344E307-70EA-9749-BC3D-54A83804696F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="280" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <f>40*1000</f>
+        <v>40000</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -530,7 +531,8 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>8.6999999999999994E-3</v>
+        <f>0.0087*1000</f>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -574,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5D001-EACD-464B-BF0A-91777AE16B43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScale="225" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
